--- a/Linux-Command-Library.xlsx
+++ b/Linux-Command-Library.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acduroy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alecd\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3E7701-1204-4E11-B3F6-C0D9A3DAA2D1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{AF8E28C1-AAEC-44D2-B97D-D26994D85A69}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
-    <sheet name="Useful-Linux-Commands" sheetId="1" r:id="rId1"/>
+    <sheet name="RHEL" sheetId="2" r:id="rId1"/>
+    <sheet name="Ubuntu" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
   <si>
     <t>Command:</t>
   </si>
@@ -200,12 +200,146 @@
   <si>
     <t>Ref: https://access.redhat.com/documentation/en-us/red_hat_enterprise_linux/7/html/networking_guide/sec-network_config_using_cli</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC20CB9"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>read</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF660033"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Press [Enter] key to continue…"</t>
+    </r>
+  </si>
+  <si>
+    <t>ethtool -s &lt;nic_device&gt; speed &lt;value-in-Mbs&gt; duplex full autoneg off                ex. nic_device = enp130s0f0; value-in-Mbs = 10000 (10G)</t>
+  </si>
+  <si>
+    <t>Modify NIC interface card speed</t>
+  </si>
+  <si>
+    <t>hostnamectl status</t>
+  </si>
+  <si>
+    <t>SYSTEM</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hostnamectl set-hostname </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>name</t>
+    </r>
+  </si>
+  <si>
+    <t>To set all the Host Names</t>
+  </si>
+  <si>
+    <t>To view all current Host Names</t>
+  </si>
+  <si>
+    <r>
+      <t>hostnamectl set-hostname</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> name [option…]</t>
+    </r>
+  </si>
+  <si>
+    <t>To set a Particular Host Name; where options are --pretty, --static, and --transient. Ex. hostnamectl set-hostname "Supermicro's Server" --pretty</t>
+  </si>
+  <si>
+    <t>hostnamectl set-hostname "" [option…]</t>
+  </si>
+  <si>
+    <t>To clear a Particular Host Name; where options are --pretty, --static, and --transient</t>
+  </si>
+  <si>
+    <t>hostnamectl set-hostname -H [username]@hostname</t>
+  </si>
+  <si>
+    <t>Changing Host Names Remotely</t>
+  </si>
+  <si>
+    <t>su - ; visudo; append the ff line &lt;user_name&gt;  ALL=(ALL)  ALL; then exit the text editor</t>
+  </si>
+  <si>
+    <t>To add username to sudoers (ref. Memo-How-to-add-sudo-priviledges)</t>
+  </si>
+  <si>
+    <t>sudo service network restart</t>
+  </si>
+  <si>
+    <t>How to restart network at CLI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sudo ifdown &lt;dev_name&gt; &amp;&amp; ifup &lt; dev_name&gt; </t>
+  </si>
+  <si>
+    <t>sudo systemctl status|start|stop|restart network</t>
+  </si>
+  <si>
+    <t>sudo /etc/init.d/network/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,8 +419,70 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF110000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC20CB9"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF660033"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,8 +507,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="40">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -805,11 +1007,199 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -952,6 +1342,78 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -961,6 +1423,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -979,12 +1453,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -996,6 +1464,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1310,12 +1798,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D80FB4-F8E9-4F18-A72E-29714F99C890}">
-  <dimension ref="A1:E103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,10 +1840,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="20"/>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="93" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1367,8 +1855,8 @@
         <v>5</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="74"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="94"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
@@ -1378,8 +1866,8 @@
         <v>7</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="74"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="94"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
@@ -1389,8 +1877,8 @@
         <v>9</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="74"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="94"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
@@ -1400,8 +1888,8 @@
         <v>11</v>
       </c>
       <c r="C6" s="21"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="74"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="94"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
@@ -1410,13 +1898,13 @@
       <c r="B7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="75"/>
+      <c r="E7" s="95"/>
     </row>
     <row r="8" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
@@ -1425,9 +1913,9 @@
       <c r="B8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="75"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="95"/>
     </row>
     <row r="9" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
@@ -1439,8 +1927,8 @@
       <c r="C9" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="75"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="95"/>
     </row>
     <row r="10" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
@@ -1455,7 +1943,7 @@
       <c r="D10" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="75"/>
+      <c r="E10" s="95"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
@@ -1466,7 +1954,7 @@
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="75"/>
+      <c r="E11" s="95"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
@@ -1477,27 +1965,953 @@
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="75"/>
+      <c r="E12" s="95"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="109" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="75"/>
+      <c r="E13" s="95"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="70"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="95"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="111" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="113" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="107"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="95"/>
+    </row>
+    <row r="16" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="114" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="112"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="95"/>
+    </row>
+    <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="114" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="112"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="95"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="114" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="112"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="95"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="65"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="96"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+    </row>
+    <row r="21" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="84" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A22" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="85"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="72"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="86"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="57"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="59"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="87" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="88"/>
+    </row>
+    <row r="27" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="88"/>
+    </row>
+    <row r="28" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="88"/>
+    </row>
+    <row r="29" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="88"/>
+    </row>
+    <row r="30" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="88"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31" s="89"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="78"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="82"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="29"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="14"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="29"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="14"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="29"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="14"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="29"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="29"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="14"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="29"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="14"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="29"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="14"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="29"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="14"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="29"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="14"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="29"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="14"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="29"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="29"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="14"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="29"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="14"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="29"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="14"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="29"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="14"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="29"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="29"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="14"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="29"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="14"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="29"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="14"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="29"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="14"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="29"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="29"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="14"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="29"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="14"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="29"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="14"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="29"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="14"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="29"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="14"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="29"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="14"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="29"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="14"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="29"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="14"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="29"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="14"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="29"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="14"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="29"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="14"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="29"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="14"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="29"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="14"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="29"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="14"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="29"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="14"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="29"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="14"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="29"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="14"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="29"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="14"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="29"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="14"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="29"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="14"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="29"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="14"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="29"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="14"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="29"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="14"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="29"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="14"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="29"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="14"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="29"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="14"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="29"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="14"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="29"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="14"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="29"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="14"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="29"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="14"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="29"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="14"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="29"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="14"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="29"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="14"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="29"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="14"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="29"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="14"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="29"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="14"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="29"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="14"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="29"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="14"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="29"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="14"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="29"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="14"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="29"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="14"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="29"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="14"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="29"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="14"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="29"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="14"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="29"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="14"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="29"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="14"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="29"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="14"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="29"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="14"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="29"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="14"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="29"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="14"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="29"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="22"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="14"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="29"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="14"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="29"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="14"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="29"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="14"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="29"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="22"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="14"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="29"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="14"/>
+    </row>
+    <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="30"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E25:E31"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E19"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E103"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23:A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="90" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="103" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="104"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="104"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="104"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="104"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="105"/>
+    </row>
+    <row r="8" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="98"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="105"/>
+    </row>
+    <row r="9" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="100"/>
+      <c r="E9" s="105"/>
+    </row>
+    <row r="10" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="105"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="105"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="105"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="101" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="105"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="102"/>
       <c r="C14" s="43"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="76"/>
+      <c r="E14" s="106"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="47"/>
@@ -1514,7 +2928,7 @@
       <c r="E16" s="56"/>
     </row>
     <row r="17" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="62" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="61" t="s">
@@ -1531,7 +2945,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="63" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="39" t="s">
@@ -1548,8 +2962,10 @@
       <c r="D19" s="58"/>
       <c r="E19" s="59"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
+    <row r="20" spans="1:5" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="64" t="s">
+        <v>43</v>
+      </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="10"/>

--- a/Linux-Command-Library.xlsx
+++ b/Linux-Command-Library.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="65">
   <si>
     <t>Command:</t>
   </si>
@@ -333,6 +333,9 @@
   </si>
   <si>
     <t>sudo /etc/init.d/network/</t>
+  </si>
+  <si>
+    <t>How to restart particular network interface</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1086,87 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1094,7 +1177,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1103,7 +1188,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1113,93 +1200,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1351,9 +1356,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1371,15 +1373,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1397,21 +1390,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1425,15 +1409,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1476,14 +1451,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1802,8 +1798,8 @@
   <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,10 +1836,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="20"/>
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="93" t="s">
+      <c r="E2" s="86" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1855,8 +1851,8 @@
         <v>5</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="94"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="95"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
@@ -1866,8 +1862,8 @@
         <v>7</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="94"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="95"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
@@ -1877,8 +1873,8 @@
         <v>9</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="94"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="95"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
@@ -1888,8 +1884,8 @@
         <v>11</v>
       </c>
       <c r="C6" s="21"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="94"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="95"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
@@ -1898,10 +1894,10 @@
       <c r="B7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="97" t="s">
+      <c r="C7" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="99" t="s">
+      <c r="D7" s="89" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="95"/>
@@ -1913,8 +1909,8 @@
       <c r="B8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="100"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="90"/>
       <c r="E8" s="95"/>
     </row>
     <row r="9" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -1927,7 +1923,7 @@
       <c r="C9" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="100"/>
+      <c r="D9" s="90"/>
       <c r="E9" s="95"/>
     </row>
     <row r="10" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
@@ -1971,7 +1967,7 @@
       <c r="A13" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="109" t="s">
+      <c r="B13" s="99" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="22"/>
@@ -1982,100 +1978,102 @@
       <c r="A14" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="108"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="98"/>
       <c r="E14" s="95"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="111" t="s">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="104"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="95"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="52"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="105"/>
+    </row>
+    <row r="17" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="106" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="109" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A18" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="110"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="113" t="s">
+      <c r="B19" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="107"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="95"/>
-    </row>
-    <row r="16" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="114" t="s">
+      <c r="C19" s="97"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="110"/>
+    </row>
+    <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="112"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="95"/>
-    </row>
-    <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="114" t="s">
+      <c r="B20" s="102" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="97"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="110"/>
+    </row>
+    <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="112"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="95"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="114" t="s">
+      <c r="B21" s="102"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="110"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="112"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="95"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="65"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="96"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="52"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-    </row>
-    <row r="21" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="84" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A22" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="85"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="110"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="72"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="86"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="111"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="57"/>
@@ -2093,7 +2091,7 @@
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="87" t="s">
+      <c r="E25" s="80" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2106,61 +2104,61 @@
       </c>
       <c r="C26" s="22"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="88"/>
+      <c r="E26" s="81"/>
     </row>
     <row r="27" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="72" t="s">
         <v>52</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="88"/>
+      <c r="E27" s="81"/>
     </row>
     <row r="28" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="77" t="s">
+      <c r="A28" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="72" t="s">
         <v>54</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="10"/>
-      <c r="E28" s="88"/>
+      <c r="E28" s="81"/>
     </row>
     <row r="29" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="76" t="s">
+      <c r="B29" s="72" t="s">
         <v>56</v>
       </c>
       <c r="C29" s="22"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="88"/>
+      <c r="E29" s="81"/>
     </row>
     <row r="30" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="83" t="s">
+      <c r="A30" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="76" t="s">
+      <c r="B30" s="72" t="s">
         <v>58</v>
       </c>
       <c r="C30" s="22"/>
       <c r="D30" s="10"/>
-      <c r="E30" s="88"/>
+      <c r="E30" s="81"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E31" s="89"/>
+      <c r="E31" s="82"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="78"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="82"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="78"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="29"/>
@@ -2711,10 +2709,10 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E2:E15"/>
+    <mergeCell ref="E17:E23"/>
     <mergeCell ref="E25:E31"/>
     <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E19"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D9"/>
   </mergeCells>
@@ -2766,10 +2764,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="20"/>
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="103" t="s">
+      <c r="E2" s="93" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2781,8 +2779,8 @@
         <v>5</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="104"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="94"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
@@ -2792,8 +2790,8 @@
         <v>7</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="104"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="94"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
@@ -2803,8 +2801,8 @@
         <v>9</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="104"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="94"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
@@ -2814,8 +2812,8 @@
         <v>11</v>
       </c>
       <c r="C6" s="21"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="104"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="94"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
@@ -2824,13 +2822,13 @@
       <c r="B7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="97" t="s">
+      <c r="C7" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="99" t="s">
+      <c r="D7" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="105"/>
+      <c r="E7" s="95"/>
     </row>
     <row r="8" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
@@ -2839,9 +2837,9 @@
       <c r="B8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="105"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="95"/>
     </row>
     <row r="9" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
@@ -2853,8 +2851,8 @@
       <c r="C9" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="100"/>
-      <c r="E9" s="105"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="95"/>
     </row>
     <row r="10" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
@@ -2869,7 +2867,7 @@
       <c r="D10" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="105"/>
+      <c r="E10" s="95"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
@@ -2880,7 +2878,7 @@
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="105"/>
+      <c r="E11" s="95"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
@@ -2891,27 +2889,27 @@
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="105"/>
+      <c r="E12" s="95"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="91" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="105"/>
+      <c r="E13" s="95"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="102"/>
+      <c r="B14" s="92"/>
       <c r="C14" s="43"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="106"/>
+      <c r="E14" s="96"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="47"/>

--- a/Linux-Command-Library.xlsx
+++ b/Linux-Command-Library.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
   <si>
     <t>Command:</t>
   </si>
@@ -337,12 +337,24 @@
   <si>
     <t>How to restart particular network interface</t>
   </si>
+  <si>
+    <t>sudo lsscsi -H</t>
+  </si>
+  <si>
+    <t>sudo dmesg | grep 'SATA link down'</t>
+  </si>
+  <si>
+    <t>sudo dmesg | grep ‘SATA link up’</t>
+  </si>
+  <si>
+    <t>DRIVE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,6 +496,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF242729"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -517,7 +535,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -1200,11 +1218,143 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1379,13 +1529,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1480,6 +1623,37 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1795,11 +1969,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,10 +2010,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="20"/>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="86" t="s">
+      <c r="E2" s="81" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1851,8 +2025,8 @@
         <v>5</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="95"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="90"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
@@ -1862,8 +2036,8 @@
         <v>7</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="95"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="90"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
@@ -1873,8 +2047,8 @@
         <v>9</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="95"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="90"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
@@ -1884,8 +2058,8 @@
         <v>11</v>
       </c>
       <c r="C6" s="21"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="95"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="90"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
@@ -1894,13 +2068,13 @@
       <c r="B7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="95"/>
+      <c r="E7" s="90"/>
     </row>
     <row r="8" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
@@ -1909,9 +2083,9 @@
       <c r="B8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="95"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="90"/>
     </row>
     <row r="9" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
@@ -1923,8 +2097,8 @@
       <c r="C9" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="90"/>
-      <c r="E9" s="95"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="90"/>
     </row>
     <row r="10" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
@@ -1939,7 +2113,7 @@
       <c r="D10" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="95"/>
+      <c r="E10" s="90"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
@@ -1950,7 +2124,7 @@
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="95"/>
+      <c r="E11" s="90"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
@@ -1961,40 +2135,40 @@
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="95"/>
+      <c r="E12" s="90"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="99" t="s">
+      <c r="B13" s="94" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="95"/>
+      <c r="E13" s="90"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="100"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="95"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="90"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="104"/>
+      <c r="B15" s="99"/>
       <c r="C15" s="43"/>
       <c r="D15" s="16"/>
-      <c r="E15" s="95"/>
+      <c r="E15" s="90"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="52"/>
       <c r="B16" s="53"/>
       <c r="C16" s="54"/>
       <c r="D16" s="55"/>
-      <c r="E16" s="105"/>
+      <c r="E16" s="100"/>
     </row>
     <row r="17" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="65" t="s">
@@ -2006,10 +2180,10 @@
       <c r="C17" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="106" t="s">
+      <c r="D17" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="109" t="s">
+      <c r="E17" s="104" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2021,48 +2195,48 @@
         <v>45</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="110"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="105"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="97"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="110"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="105"/>
     </row>
     <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="103" t="s">
+      <c r="A20" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="102" t="s">
+      <c r="B20" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="97"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="110"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="105"/>
     </row>
     <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="103" t="s">
+      <c r="A21" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="102"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="110"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="105"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="103" t="s">
+      <c r="A22" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="102"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="110"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="105"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="69" t="s">
@@ -2072,8 +2246,8 @@
         <v>40</v>
       </c>
       <c r="C23" s="71"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="111"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="106"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="57"/>
@@ -2091,7 +2265,7 @@
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="80" t="s">
+      <c r="E25" s="75" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2104,7 +2278,7 @@
       </c>
       <c r="C26" s="22"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="81"/>
+      <c r="E26" s="76"/>
     </row>
     <row r="27" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
@@ -2115,7 +2289,7 @@
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="81"/>
+      <c r="E27" s="76"/>
     </row>
     <row r="28" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="73" t="s">
@@ -2126,7 +2300,7 @@
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="10"/>
-      <c r="E28" s="81"/>
+      <c r="E28" s="76"/>
     </row>
     <row r="29" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
@@ -2137,10 +2311,10 @@
       </c>
       <c r="C29" s="22"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="81"/>
+      <c r="E29" s="76"/>
     </row>
     <row r="30" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="79" t="s">
+      <c r="A30" s="74" t="s">
         <v>57</v>
       </c>
       <c r="B30" s="72" t="s">
@@ -2148,52 +2322,60 @@
       </c>
       <c r="C30" s="22"/>
       <c r="D30" s="10"/>
-      <c r="E30" s="81"/>
+      <c r="E30" s="76"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E31" s="82"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="74"/>
-      <c r="B32" s="75"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="78"/>
+      <c r="E31" s="77"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="107"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="111"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="14"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
+      <c r="A33" s="112" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="113"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="121" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="116" t="s">
+        <v>66</v>
+      </c>
       <c r="B34" s="13"/>
       <c r="C34" s="22"/>
       <c r="D34" s="10"/>
-      <c r="E34" s="14"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="14"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="14"/>
+      <c r="E34" s="122"/>
+    </row>
+    <row r="35" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="117" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="120"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="122"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="117"/>
+      <c r="B36" s="118"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="123"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="14"/>
+      <c r="A37" s="107"/>
+      <c r="B37" s="108"/>
+      <c r="C37" s="109"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="111"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="29"/>
@@ -2699,18 +2881,26 @@
       <c r="D109" s="10"/>
       <c r="E109" s="14"/>
     </row>
-    <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="30"/>
-      <c r="B110" s="15"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="16"/>
-      <c r="E110" s="17"/>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="29"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="14"/>
+    </row>
+    <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="30"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="E2:E15"/>
     <mergeCell ref="E17:E23"/>
+    <mergeCell ref="E33:E36"/>
     <mergeCell ref="E25:E31"/>
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="C7:C8"/>
@@ -2764,10 +2954,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="20"/>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="93" t="s">
+      <c r="E2" s="88" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2779,8 +2969,8 @@
         <v>5</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="94"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="89"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
@@ -2790,8 +2980,8 @@
         <v>7</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="94"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="89"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
@@ -2801,8 +2991,8 @@
         <v>9</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="94"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="89"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
@@ -2812,8 +3002,8 @@
         <v>11</v>
       </c>
       <c r="C6" s="21"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="94"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="89"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
@@ -2822,13 +3012,13 @@
       <c r="B7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="95"/>
+      <c r="E7" s="90"/>
     </row>
     <row r="8" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
@@ -2837,9 +3027,9 @@
       <c r="B8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="95"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="90"/>
     </row>
     <row r="9" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
@@ -2851,8 +3041,8 @@
       <c r="C9" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="90"/>
-      <c r="E9" s="95"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="90"/>
     </row>
     <row r="10" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
@@ -2867,7 +3057,7 @@
       <c r="D10" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="95"/>
+      <c r="E10" s="90"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
@@ -2878,7 +3068,7 @@
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="95"/>
+      <c r="E11" s="90"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
@@ -2889,27 +3079,27 @@
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="95"/>
+      <c r="E12" s="90"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="86" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="95"/>
+      <c r="E13" s="90"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="92"/>
+      <c r="B14" s="87"/>
       <c r="C14" s="43"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="96"/>
+      <c r="E14" s="91"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="47"/>

--- a/Linux-Command-Library.xlsx
+++ b/Linux-Command-Library.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RHEL" sheetId="2" r:id="rId1"/>
     <sheet name="Ubuntu" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="183">
   <si>
     <t>Command:</t>
   </si>
@@ -349,12 +349,733 @@
   <si>
     <t>DRIVE</t>
   </si>
+  <si>
+    <t>GRUB_CMDLINE_LINUX_DEFAULT="quiet splash reboot=efi,pci pci=nomsi,noaer"</t>
+  </si>
+  <si>
+    <t>But I really don't understand what I did. Is there any downside to this?</t>
+  </si>
+  <si>
+    <t>As stated here: http://redsymbol.net/linux-kernel-boot-parameters/2.6.28/</t>
+  </si>
+  <si>
+    <t>noaer: [PCIE] If the PCIEAER kernel config parameter is enabled, this kernel boot option can be used to disable the use of PCIE advanced error reporting.</t>
+  </si>
+  <si>
+    <t>nomsi: [MSI] If the PCI_MSI kernel config parameter is enabled, this kernel boot option can be used to disable the use of MSI interrupts system-wide.</t>
+  </si>
+  <si>
+    <t>reference: https://askubuntu.com/questions/726100/pci-nomsi-noaer-in-etc-default-grub-any-downside</t>
+  </si>
+  <si>
+    <r>
+      <t>Because my </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF242729"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>kern.log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF242729"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF242729"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>syslog</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF242729"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> files were growing to immense size, I added the subject entry to a line in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF242729"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/etc/default/grub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF242729"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Procedure on how to suppress the error and boot at all must add pci=noaer</t>
+  </si>
+  <si>
+    <t>Follow these steps precisely</t>
+  </si>
+  <si>
+    <t>Start your system as your traditional way :) Then open terminal(Ctrl+Alt+T) and execute these commands:</t>
+  </si>
+  <si>
+    <t>sudo cp /etc/default/grub /etc/default/grub.bak</t>
+  </si>
+  <si>
+    <t>sudo gedit /etc/default/grub</t>
+  </si>
+  <si>
+    <t>once grub is opened in gedit replace</t>
+  </si>
+  <si>
+    <t>GRUB_CMDLINE_LINUX_DEFAULT="quiet splash"</t>
+  </si>
+  <si>
+    <t>by</t>
+  </si>
+  <si>
+    <t>GRUB_CMDLINE_LINUX_DEFAULT="quiet splash pci=nomsi"</t>
+  </si>
+  <si>
+    <t>Save and close gedit window.</t>
+  </si>
+  <si>
+    <t>Update grub and restart your system:</t>
+  </si>
+  <si>
+    <t>sudo update-grub</t>
+  </si>
+  <si>
+    <t>sudo reboot</t>
+  </si>
+  <si>
+    <t>PCIE Bus Error: Severity=Corrected after booting into Ubuntu 16.04.2 LTS      ref: https://devtalk.nvidia.com/default/topic/1022396/linux/pcie-bus-error-severity-corrected-after-booting-into-ubuntu-16-04-2-lts-/</t>
+  </si>
+  <si>
+    <t>grub-install --version</t>
+  </si>
+  <si>
+    <t>lshw -class network</t>
+  </si>
+  <si>
+    <t>lspci |grep Network</t>
+  </si>
+  <si>
+    <t>Sample Output:  lshw -class network
+  *-network                                                                                                                                                             
+       description: Ethernet interface                                                                                                                                  
+       product: 82579LM Gigabit Network Connection                                                                                                                      
+       vendor: Intel Corporation                                                                                                                                        
+       physical id: 19                                                                                                                                                  
+       bus info: pci@0000:00:19.0                                                                                                                                       
+       logical name: enp0s25                                                                                                                                            
+       version: 04                                                                                                                                                      
+       serial: 3c:97:0e:02:98:c8                                                                                                                                        
+       capacity: 1Gbit/s                                                                                                                                                
+       width: 32 bits                                                             
+       clock: 33MHz                                                               
+       capabilities: pm msi bus_master cap_list ethernet physical tp 10bt 10bt-fd 
+       configuration: autonegotiation=on broadcast=yes driver=e1000e driverversion
+       resources: irq:50 memory:f1600000-f161ffff memory:f162a000-f162afff ioport:</t>
+  </si>
+  <si>
+    <t>Sample Output:                                                                  #lspci | grep Network                                              00:19.0 Ethernet controller: Intel Corporation 82579LM Gigabit Network Connection (rev 04)          03:00.0 Network controller: Intel Corporation Centrino Advanced-N 6205 [Taylor Peak] (rev 34)</t>
+  </si>
+  <si>
+    <t>inxi -N -v 7</t>
+  </si>
+  <si>
+    <t>extremely useful too to print out a network hardware information and its configuration in a nicely formatted output</t>
+  </si>
+  <si>
+    <t>Sample output:                                                    Network: Card-1: Intel 82579LM Gigabit Network Connection
+           driver: e1000e v: 2.3.2-k port: 4060 bus-ID: 00:19.0 chip-ID: 8086:1502
+           IF: enp0s25 state: down mac: 3c:97:0e:02:97:c8
+           Card-2: Intel Centrino Advanced-N 6205 [Taylor Peak]
+           driver: iwlwifi v: in-tree: bus-ID: 03:00.0 chip-ID: 8086:0085
+           IF: wlp3s0 state: up mac: 8c:70:5a:92:f6:e0
+           WAN IP: 223.213.45.125 IF: wlp3s0 ip: 10.1.1.8 ip-v6: fe80::8e70:5aff:fa92:f640</t>
+  </si>
+  <si>
+    <t>Ref: https://linuxconfig.org/how-to-obtain-information-about-network-devices-and-their-configuration-on-linux</t>
+  </si>
+  <si>
+    <t>How to Install Kernel 4.15 in Ubuntu at command line</t>
+  </si>
+  <si>
+    <t>For 64-bit OS::</t>
+  </si>
+  <si>
+    <t>1) cd /tmp/</t>
+  </si>
+  <si>
+    <t>2) wget http://kernel.ubuntu.com/~kernel-ppa/mainline/v4.15/linux-headers-4.15.0-041500_4.15.0-041500.201801282230_all.deb</t>
+  </si>
+  <si>
+    <t>3) wget http://kernel.ubuntu.com/~kernel-ppa/mainline/v4.15/linux-headers-4.15.0-041500-generic_4.15.0-041500.201801282230_amd64.deb</t>
+  </si>
+  <si>
+    <t>4) wget http://kernel.ubuntu.com/~kernel-ppa/mainline/v4.15/linux-image-4.15.0-041500-generic_4.15.0-041500.201801282230_amd64.deb</t>
+  </si>
+  <si>
+    <t>5) sudo dpkg -i *.deb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to check the grub version </t>
+  </si>
+  <si>
+    <t>How to provide all possible network device hardware information</t>
+  </si>
+  <si>
+    <t>check that the ip utility is installed by checking its version number as follows:</t>
+  </si>
+  <si>
+    <t>Ref: http://ubuntuhandbook.org/index.php/2018/01/install-linux-kernel-4-15-in-ubuntu-linux-mint/</t>
+  </si>
+  <si>
+    <t>v4.15 mainline build http://kernel.ubuntu.com/~kernel-ppa/mainline/v4.15/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KERNEL </t>
+  </si>
+  <si>
+    <t>How to uninstall Linux Kernel 4.15:</t>
+  </si>
+  <si>
+    <t>Remove Automatically Installed Kernels:</t>
+  </si>
+  <si>
+    <t>1. To remove the kernels that were automatically installed via regular system updates, open terminal and run:</t>
+  </si>
+  <si>
+    <t>sudo apt autoremove --purge</t>
+  </si>
+  <si>
+    <t>2. To enable automatic removing of old kernels</t>
+  </si>
+  <si>
+    <t>Run command to enable unattended upgrades. For Desktop Ubuntu 16.04, this is enabled by default.</t>
+  </si>
+  <si>
+    <t>sudo dpkg-reconfigure unattended-upgrades</t>
+  </si>
+  <si>
+    <t>gksudo gedit /etc/apt/apt.conf.d/50unattended-upgrades</t>
+  </si>
+  <si>
+    <t>When the file opens, uncomment the following line and change the value to true:</t>
+  </si>
+  <si>
+    <t>//Unattended-Upgrade::Remove-Unused-Dependencies "false";</t>
+  </si>
+  <si>
+    <r>
+      <t>Edit the config file via command (first install gksu via </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>sudo apt install gksu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove Manually Installed Kernels: </t>
+  </si>
+  <si>
+    <t>If you install latest kernels from Kernel PPA, or build your own kernels with patches, a “purge-old-kernels” script is the best and the easiest way to remove old kernels.</t>
+  </si>
+  <si>
+    <t>1. The script is maintained in byobu package, so first install it via:</t>
+  </si>
+  <si>
+    <t>sudo apt install byobu</t>
+  </si>
+  <si>
+    <t>2. Then run the script regularly to remove old kernels:</t>
+  </si>
+  <si>
+    <t>sudo purge-old-kernels</t>
+  </si>
+  <si>
+    <t>uname -r</t>
+  </si>
+  <si>
+    <t>dpkg -l | tail -n +6 | grep -E 'linux-image-[0-9]+' | grep -Fv $(uname -r)</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t> Run command to check out current kernel and DON’T REMOVE it:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t> List all kernels excluding the current booted:</t>
+    </r>
+  </si>
+  <si>
+    <t>There will be three status in the listed kernel images:</t>
+  </si>
+  <si>
+    <r>
+      <t>rc  linux-image-4.4.0-15-generic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">               4.4.0-15.31                                         amd64        Linux kernel image for version 4.4.0 on 64 bit x86 SMP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ii  linux-image-4.4.0-18-generic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">               4.4.0-18.34                                         amd64        Linux kernel image for version 4.4.0 on 64 bit x86 SMP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>rc  linux-image-4.6.0-040600rc3-generic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">        4.6.0-040600rc3.201604120934                        amd64        Linux kernel image for version 4.6.0 on 64 bit x86 SMP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>rc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>: means it has already been removed.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ii</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>: means installed, eligible for removal.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>iU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>: DON’T REMOVE. It means not installed, but queued for install in apt.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. Remove old kernel images in status </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>ii</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>, it’s “linux-image-4.4.0-18-generic” in the example above</t>
+    </r>
+  </si>
+  <si>
+    <t>Example output from step #2:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sudo dpkg --purge </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>linux-image-4.4.0-18-generic</t>
+    </r>
+  </si>
+  <si>
+    <t>And also try to remove the respective header and common header packages (Don’t worry if the command fails):</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sudo dpkg --purge </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>linux-image-4.4.0-18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">-header </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>linux-image-4.4.0-18</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If the command fails, remove the dependency packages that the output tells you via </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>sudo dpkg --purge PACKAGE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>4. Finally you may fix the apt broken dependency via command:
+sudo apt -f install</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Remove Old Kernels via DPKG</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>If your /boot partition has already full while doing an upgrade or package install, and apt (the script above uses apt) can’t remove packages due to broken dependency, here you can manually find out the old kernel packages and remove them via DPKG:</t>
+    </r>
+  </si>
+  <si>
+    <t>Ref: http://ubuntuhandbook.org/index.php/2016/05/remove-old-kernels-ubuntu-16-04/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Format the partition with the ext4 file system using the mkfs.ext4 or mke4fscommand: and supply the label name:                        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF252525"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Ex. mkfs.ext4 -L gpt /dev/sdb1</t>
+    </r>
+  </si>
+  <si>
+    <t>Partitioning of the disk</t>
+  </si>
+  <si>
+    <t>1) sudo fdisk /dev/&lt;block_name&gt;</t>
+  </si>
+  <si>
+    <t>2) at fdisk menu; select "g"</t>
+  </si>
+  <si>
+    <t>Create a gpt disk volume</t>
+  </si>
+  <si>
+    <t>3) at fdisk menu; select "n"</t>
+  </si>
+  <si>
+    <t>Create a partition</t>
+  </si>
+  <si>
+    <t>4) at fdisk menu; select "w"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5) mkfs.ext4 -L &lt;label_name&gt; /dev/block_device_partition </t>
+  </si>
+  <si>
+    <t>Save the patition configuration to the disk</t>
+  </si>
+  <si>
+    <t>1) cat /proc/net/if_inet6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF252525"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">How to test Linux OS for IPv6 Networking Support </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF252525"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">                       To check whether your current kernel supports IPv6             Sample output:                                       00000000000000000000000000000001 01 80 10 80       lo
+fe8000000000000002179afffe0af644 03 40 20 80      ra0
+fe800000000000000219d1fffe2abaa8 02 40 20 80     eth0</t>
+    </r>
+  </si>
+  <si>
+    <t>2) sudo modprobe ipv6</t>
+  </si>
+  <si>
+    <t>Turn on IPv6 Support</t>
+  </si>
+  <si>
+    <t>3) lsmod | grep ipv6</t>
+  </si>
+  <si>
+    <t>To test again                                                                         Sample Output:                                                                            ipv6                  411425  18</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4) Try following simple shell conditional code to display human readable output, enter:                                           $ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>[ -f /proc/net/if_inet6 ] &amp;&amp; echo 'IPv6 ready system!' || echo 'No IPv6 support found! Compile the kernel!!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <t>Sample Output:                                                                            IPv6 ready system!</t>
+  </si>
+  <si>
+    <t>ref: https://www.cyberciti.biz/faq/check-for-ipv6-support-in-linux-kernel/</t>
+  </si>
+  <si>
+    <t>sudo -i</t>
+  </si>
+  <si>
+    <t>Running Root Commands with Sudo</t>
+  </si>
+  <si>
+    <t>sudo passwd root</t>
+  </si>
+  <si>
+    <t>This will create password for root</t>
+  </si>
+  <si>
+    <t>sudo passwd -dl root</t>
+  </si>
+  <si>
+    <t>To disable the root account</t>
+  </si>
+  <si>
+    <t>How to become root in Ubuntu</t>
+  </si>
+  <si>
+    <t>ref: https://www.wikihow.com/Become-Root-in-Ubuntu</t>
+  </si>
+  <si>
+    <t>Install rar/unrar on RedHat 7</t>
+  </si>
+  <si>
+    <t>## 64 bit linux ##
+wget https://www.rarlab.com/rar/rarlinux-x64-5.5.0.tar.gz
+tar -zxvf rarlinux-x64-5.5.0.tar.gz
+cd rar
+sudo cp -v rar unrar /usr/local/bin/</t>
+  </si>
+  <si>
+    <t>ref: https://bitsanddragons.wordpress.com/2018/01/09/install-rar-unrar-on-centos-7/</t>
+  </si>
+  <si>
+    <t>ip addr show  or ip a |grep -i eno1</t>
+  </si>
+  <si>
+    <t>to verify network connection</t>
+  </si>
+  <si>
+    <t>ethtool --identify eno1</t>
+  </si>
+  <si>
+    <t>to check location of NIC interface (led is blinking)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="47">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,8 +1223,203 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF242729"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF242729"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFDD1144"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF252525"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF252525"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,8 +1450,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="64">
+  <borders count="87">
     <border>
       <left/>
       <right/>
@@ -1350,11 +2278,297 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="281">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1444,9 +2658,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1491,17 +2702,8 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1532,65 +2734,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1614,15 +2759,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1646,6 +2782,232 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1655,8 +3017,276 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1971,12 +3601,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.28515625" customWidth="1"/>
     <col min="2" max="2" width="58.85546875" customWidth="1"/>
@@ -1985,7 +3615,7 @@
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="21.75" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2002,7 +3632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
@@ -2010,14 +3640,14 @@
         <v>3</v>
       </c>
       <c r="C2" s="20"/>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="189" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="178" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
@@ -2025,10 +3655,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="90"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="190"/>
+      <c r="E3" s="179"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="24" t="s">
         <v>8</v>
       </c>
@@ -2036,10 +3666,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="90"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="190"/>
+      <c r="E4" s="179"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="25" t="s">
         <v>10</v>
       </c>
@@ -2047,10 +3677,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="90"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="190"/>
+      <c r="E5" s="179"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1">
       <c r="A6" s="26" t="s">
         <v>12</v>
       </c>
@@ -2058,36 +3688,36 @@
         <v>11</v>
       </c>
       <c r="C6" s="21"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="90"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="191"/>
+      <c r="E6" s="179"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="32" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="194" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="90"/>
-    </row>
-    <row r="8" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="179"/>
+    </row>
+    <row r="8" spans="1:5" ht="40.5" customHeight="1">
       <c r="A8" s="31" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="90"/>
-    </row>
-    <row r="9" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="193"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="179"/>
+    </row>
+    <row r="9" spans="1:5" ht="39" thickBot="1">
       <c r="A9" s="34" t="s">
         <v>23</v>
       </c>
@@ -2097,166 +3727,166 @@
       <c r="C9" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="90"/>
-    </row>
-    <row r="10" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+      <c r="D9" s="195"/>
+      <c r="E9" s="179"/>
+    </row>
+    <row r="10" spans="1:5" ht="26.25">
+      <c r="A10" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="90"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="E10" s="179"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="90"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="E11" s="179"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="38" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="90"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="E12" s="179"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="176" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="90"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42" t="s">
+      <c r="E13" s="179"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A14" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="95"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="90"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="99"/>
-      <c r="C15" s="43"/>
+      <c r="B14" s="177"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="179"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B15" s="76"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="16"/>
-      <c r="E15" s="90"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="100"/>
-    </row>
-    <row r="17" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="65" t="s">
+      <c r="E15" s="179"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A16" s="51"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="77"/>
+    </row>
+    <row r="17" spans="1:5" ht="38.25">
+      <c r="A17" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="101" t="s">
+      <c r="D17" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="104" t="s">
+      <c r="E17" s="180" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A18" s="68" t="s">
+    <row r="18" spans="1:5" ht="51">
+      <c r="A18" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="59" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="105"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="96" t="s">
+      <c r="D18" s="79"/>
+      <c r="E18" s="181"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="97" t="s">
+      <c r="B19" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="92"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="105"/>
-    </row>
-    <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="98" t="s">
+      <c r="C19" s="71"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="181"/>
+    </row>
+    <row r="20" spans="1:5" ht="25.5">
+      <c r="A20" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="97" t="s">
+      <c r="B20" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="92"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="105"/>
-    </row>
-    <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="98" t="s">
+      <c r="C20" s="71"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="181"/>
+    </row>
+    <row r="21" spans="1:5" ht="25.5">
+      <c r="A21" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="105"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="98" t="s">
+      <c r="B21" s="74"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="181"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="97"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="105"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="69" t="s">
+      <c r="B22" s="74"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="181"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A23" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="106"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="59"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="67"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="182"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="56"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="27" t="s">
         <v>46</v>
       </c>
@@ -2265,11 +3895,11 @@
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="75" t="s">
+      <c r="E25" s="186" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="28" t="s">
         <v>48</v>
       </c>
@@ -2278,617 +3908,623 @@
       </c>
       <c r="C26" s="22"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="76"/>
-    </row>
-    <row r="27" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="E26" s="187"/>
+    </row>
+    <row r="27" spans="1:5" ht="26.25">
       <c r="A27" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="68" t="s">
         <v>52</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="76"/>
-    </row>
-    <row r="28" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="73" t="s">
+      <c r="E27" s="187"/>
+    </row>
+    <row r="28" spans="1:5" ht="25.5">
+      <c r="A28" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="68" t="s">
         <v>54</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="10"/>
-      <c r="E28" s="76"/>
-    </row>
-    <row r="29" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="E28" s="187"/>
+    </row>
+    <row r="29" spans="1:5" ht="26.25">
       <c r="A29" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="68" t="s">
         <v>56</v>
       </c>
       <c r="C29" s="22"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="76"/>
-    </row>
-    <row r="30" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="74" t="s">
+      <c r="E29" s="187"/>
+    </row>
+    <row r="30" spans="1:5" ht="38.25">
+      <c r="A30" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="68" t="s">
         <v>58</v>
       </c>
       <c r="C30" s="22"/>
       <c r="D30" s="10"/>
-      <c r="E30" s="76"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E31" s="77"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="107"/>
-      <c r="B32" s="108"/>
-      <c r="C32" s="109"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="111"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="112" t="s">
+      <c r="E30" s="187"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="E31" s="188"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A32" s="81"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="85"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="113"/>
-      <c r="C33" s="114"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="121" t="s">
+      <c r="B33" s="87"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="183" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="116" t="s">
+    <row r="34" spans="1:5" ht="25.5">
+      <c r="A34" s="90" t="s">
         <v>66</v>
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="22"/>
       <c r="D34" s="10"/>
-      <c r="E34" s="122"/>
-    </row>
-    <row r="35" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="117" t="s">
+      <c r="E34" s="184"/>
+    </row>
+    <row r="35" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A35" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="120"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="122"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="117"/>
-      <c r="B36" s="118"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="119"/>
-      <c r="E36" s="123"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="107"/>
-      <c r="B37" s="108"/>
-      <c r="C37" s="109"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="111"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="22"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="184"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A36" s="91"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="185"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="81"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="85"/>
+    </row>
+    <row r="38" spans="1:5" ht="90">
+      <c r="A38" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38" s="175" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="D38" s="10"/>
       <c r="E38" s="14"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="29"/>
       <c r="B39" s="13"/>
       <c r="C39" s="22"/>
       <c r="D39" s="10"/>
       <c r="E39" s="14"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="29"/>
       <c r="B40" s="13"/>
       <c r="C40" s="22"/>
       <c r="D40" s="10"/>
       <c r="E40" s="14"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="29"/>
       <c r="B41" s="13"/>
       <c r="C41" s="22"/>
       <c r="D41" s="10"/>
       <c r="E41" s="14"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="29"/>
       <c r="B42" s="13"/>
       <c r="C42" s="22"/>
       <c r="D42" s="10"/>
       <c r="E42" s="14"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="29"/>
       <c r="B43" s="13"/>
       <c r="C43" s="22"/>
       <c r="D43" s="10"/>
       <c r="E43" s="14"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="29"/>
       <c r="B44" s="13"/>
       <c r="C44" s="22"/>
       <c r="D44" s="10"/>
       <c r="E44" s="14"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="29"/>
       <c r="B45" s="13"/>
       <c r="C45" s="22"/>
       <c r="D45" s="10"/>
       <c r="E45" s="14"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="29"/>
       <c r="B46" s="13"/>
       <c r="C46" s="22"/>
       <c r="D46" s="10"/>
       <c r="E46" s="14"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="29"/>
       <c r="B47" s="13"/>
       <c r="C47" s="22"/>
       <c r="D47" s="10"/>
       <c r="E47" s="14"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="29"/>
       <c r="B48" s="13"/>
       <c r="C48" s="22"/>
       <c r="D48" s="10"/>
       <c r="E48" s="14"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="29"/>
       <c r="B49" s="13"/>
       <c r="C49" s="22"/>
       <c r="D49" s="10"/>
       <c r="E49" s="14"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="29"/>
       <c r="B50" s="13"/>
       <c r="C50" s="22"/>
       <c r="D50" s="10"/>
       <c r="E50" s="14"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="29"/>
       <c r="B51" s="13"/>
       <c r="C51" s="22"/>
       <c r="D51" s="10"/>
       <c r="E51" s="14"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="29"/>
       <c r="B52" s="13"/>
       <c r="C52" s="22"/>
       <c r="D52" s="10"/>
       <c r="E52" s="14"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="29"/>
       <c r="B53" s="13"/>
       <c r="C53" s="22"/>
       <c r="D53" s="10"/>
       <c r="E53" s="14"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="29"/>
       <c r="B54" s="13"/>
       <c r="C54" s="22"/>
       <c r="D54" s="10"/>
       <c r="E54" s="14"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="29"/>
       <c r="B55" s="13"/>
       <c r="C55" s="22"/>
       <c r="D55" s="10"/>
       <c r="E55" s="14"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="29"/>
       <c r="B56" s="13"/>
       <c r="C56" s="22"/>
       <c r="D56" s="10"/>
       <c r="E56" s="14"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" s="29"/>
       <c r="B57" s="13"/>
       <c r="C57" s="22"/>
       <c r="D57" s="10"/>
       <c r="E57" s="14"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="29"/>
       <c r="B58" s="13"/>
       <c r="C58" s="22"/>
       <c r="D58" s="10"/>
       <c r="E58" s="14"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="29"/>
       <c r="B59" s="13"/>
       <c r="C59" s="22"/>
       <c r="D59" s="10"/>
       <c r="E59" s="14"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" s="29"/>
       <c r="B60" s="13"/>
       <c r="C60" s="22"/>
       <c r="D60" s="10"/>
       <c r="E60" s="14"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" s="29"/>
       <c r="B61" s="13"/>
       <c r="C61" s="22"/>
       <c r="D61" s="10"/>
       <c r="E61" s="14"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" s="29"/>
       <c r="B62" s="13"/>
       <c r="C62" s="22"/>
       <c r="D62" s="10"/>
       <c r="E62" s="14"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" s="29"/>
       <c r="B63" s="13"/>
       <c r="C63" s="22"/>
       <c r="D63" s="10"/>
       <c r="E63" s="14"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" s="29"/>
       <c r="B64" s="13"/>
       <c r="C64" s="22"/>
       <c r="D64" s="10"/>
       <c r="E64" s="14"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" s="29"/>
       <c r="B65" s="13"/>
       <c r="C65" s="22"/>
       <c r="D65" s="10"/>
       <c r="E65" s="14"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" s="29"/>
       <c r="B66" s="13"/>
       <c r="C66" s="22"/>
       <c r="D66" s="10"/>
       <c r="E66" s="14"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" s="29"/>
       <c r="B67" s="13"/>
       <c r="C67" s="22"/>
       <c r="D67" s="10"/>
       <c r="E67" s="14"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" s="29"/>
       <c r="B68" s="13"/>
       <c r="C68" s="22"/>
       <c r="D68" s="10"/>
       <c r="E68" s="14"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" s="29"/>
       <c r="B69" s="13"/>
       <c r="C69" s="22"/>
       <c r="D69" s="10"/>
       <c r="E69" s="14"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" s="29"/>
       <c r="B70" s="13"/>
       <c r="C70" s="22"/>
       <c r="D70" s="10"/>
       <c r="E70" s="14"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" s="29"/>
       <c r="B71" s="13"/>
       <c r="C71" s="22"/>
       <c r="D71" s="10"/>
       <c r="E71" s="14"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" s="29"/>
       <c r="B72" s="13"/>
       <c r="C72" s="22"/>
       <c r="D72" s="10"/>
       <c r="E72" s="14"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" s="29"/>
       <c r="B73" s="13"/>
       <c r="C73" s="22"/>
       <c r="D73" s="10"/>
       <c r="E73" s="14"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" s="29"/>
       <c r="B74" s="13"/>
       <c r="C74" s="22"/>
       <c r="D74" s="10"/>
       <c r="E74" s="14"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" s="29"/>
       <c r="B75" s="13"/>
       <c r="C75" s="22"/>
       <c r="D75" s="10"/>
       <c r="E75" s="14"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" s="29"/>
       <c r="B76" s="13"/>
       <c r="C76" s="22"/>
       <c r="D76" s="10"/>
       <c r="E76" s="14"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" s="29"/>
       <c r="B77" s="13"/>
       <c r="C77" s="22"/>
       <c r="D77" s="10"/>
       <c r="E77" s="14"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" s="29"/>
       <c r="B78" s="13"/>
       <c r="C78" s="22"/>
       <c r="D78" s="10"/>
       <c r="E78" s="14"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" s="29"/>
       <c r="B79" s="13"/>
       <c r="C79" s="22"/>
       <c r="D79" s="10"/>
       <c r="E79" s="14"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" s="29"/>
       <c r="B80" s="13"/>
       <c r="C80" s="22"/>
       <c r="D80" s="10"/>
       <c r="E80" s="14"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" s="29"/>
       <c r="B81" s="13"/>
       <c r="C81" s="22"/>
       <c r="D81" s="10"/>
       <c r="E81" s="14"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" s="29"/>
       <c r="B82" s="13"/>
       <c r="C82" s="22"/>
       <c r="D82" s="10"/>
       <c r="E82" s="14"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" s="29"/>
       <c r="B83" s="13"/>
       <c r="C83" s="22"/>
       <c r="D83" s="10"/>
       <c r="E83" s="14"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84" s="29"/>
       <c r="B84" s="13"/>
       <c r="C84" s="22"/>
       <c r="D84" s="10"/>
       <c r="E84" s="14"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" s="29"/>
       <c r="B85" s="13"/>
       <c r="C85" s="22"/>
       <c r="D85" s="10"/>
       <c r="E85" s="14"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" s="29"/>
       <c r="B86" s="13"/>
       <c r="C86" s="22"/>
       <c r="D86" s="10"/>
       <c r="E86" s="14"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" s="29"/>
       <c r="B87" s="13"/>
       <c r="C87" s="22"/>
       <c r="D87" s="10"/>
       <c r="E87" s="14"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" s="29"/>
       <c r="B88" s="13"/>
       <c r="C88" s="22"/>
       <c r="D88" s="10"/>
       <c r="E88" s="14"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" s="29"/>
       <c r="B89" s="13"/>
       <c r="C89" s="22"/>
       <c r="D89" s="10"/>
       <c r="E89" s="14"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" s="29"/>
       <c r="B90" s="13"/>
       <c r="C90" s="22"/>
       <c r="D90" s="10"/>
       <c r="E90" s="14"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" s="29"/>
       <c r="B91" s="13"/>
       <c r="C91" s="22"/>
       <c r="D91" s="10"/>
       <c r="E91" s="14"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" s="29"/>
       <c r="B92" s="13"/>
       <c r="C92" s="22"/>
       <c r="D92" s="10"/>
       <c r="E92" s="14"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93" s="29"/>
       <c r="B93" s="13"/>
       <c r="C93" s="22"/>
       <c r="D93" s="10"/>
       <c r="E93" s="14"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" s="29"/>
       <c r="B94" s="13"/>
       <c r="C94" s="22"/>
       <c r="D94" s="10"/>
       <c r="E94" s="14"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" s="29"/>
       <c r="B95" s="13"/>
       <c r="C95" s="22"/>
       <c r="D95" s="10"/>
       <c r="E95" s="14"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" s="29"/>
       <c r="B96" s="13"/>
       <c r="C96" s="22"/>
       <c r="D96" s="10"/>
       <c r="E96" s="14"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" s="29"/>
       <c r="B97" s="13"/>
       <c r="C97" s="22"/>
       <c r="D97" s="10"/>
       <c r="E97" s="14"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" s="29"/>
       <c r="B98" s="13"/>
       <c r="C98" s="22"/>
       <c r="D98" s="10"/>
       <c r="E98" s="14"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" s="29"/>
       <c r="B99" s="13"/>
       <c r="C99" s="22"/>
       <c r="D99" s="10"/>
       <c r="E99" s="14"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" s="29"/>
       <c r="B100" s="13"/>
       <c r="C100" s="22"/>
       <c r="D100" s="10"/>
       <c r="E100" s="14"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" s="29"/>
       <c r="B101" s="13"/>
       <c r="C101" s="22"/>
       <c r="D101" s="10"/>
       <c r="E101" s="14"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102" s="29"/>
       <c r="B102" s="13"/>
       <c r="C102" s="22"/>
       <c r="D102" s="10"/>
       <c r="E102" s="14"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103" s="29"/>
       <c r="B103" s="13"/>
       <c r="C103" s="22"/>
       <c r="D103" s="10"/>
       <c r="E103" s="14"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104" s="29"/>
       <c r="B104" s="13"/>
       <c r="C104" s="22"/>
       <c r="D104" s="10"/>
       <c r="E104" s="14"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105" s="29"/>
       <c r="B105" s="13"/>
       <c r="C105" s="22"/>
       <c r="D105" s="10"/>
       <c r="E105" s="14"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106" s="29"/>
       <c r="B106" s="13"/>
       <c r="C106" s="22"/>
       <c r="D106" s="10"/>
       <c r="E106" s="14"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107" s="29"/>
       <c r="B107" s="13"/>
       <c r="C107" s="22"/>
       <c r="D107" s="10"/>
       <c r="E107" s="14"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="A108" s="29"/>
       <c r="B108" s="13"/>
       <c r="C108" s="22"/>
       <c r="D108" s="10"/>
       <c r="E108" s="14"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109" s="29"/>
       <c r="B109" s="13"/>
       <c r="C109" s="22"/>
       <c r="D109" s="10"/>
       <c r="E109" s="14"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110" s="29"/>
       <c r="B110" s="13"/>
       <c r="C110" s="22"/>
       <c r="D110" s="10"/>
       <c r="E110" s="14"/>
     </row>
-    <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" ht="15.75" thickBot="1">
       <c r="A111" s="30"/>
       <c r="B111" s="15"/>
       <c r="C111" s="19"/>
@@ -2913,23 +4549,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23:A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.28515625" customWidth="1"/>
     <col min="2" max="2" width="58.85546875" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="21.75" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2946,809 +4582,1111 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="78" t="s">
+      <c r="C2" s="247"/>
+      <c r="D2" s="189" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="236" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="112" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="89"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="C3" s="248"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="237"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="112" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="89"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="C4" s="248"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="237"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="112" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="89"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="C5" s="248"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="237"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A6" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="89"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="C6" s="249"/>
+      <c r="D6" s="191"/>
+      <c r="E6" s="237"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="232" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="194" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="90"/>
-    </row>
-    <row r="8" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="E7" s="237"/>
+    </row>
+    <row r="8" spans="1:5" ht="40.5" customHeight="1">
+      <c r="A8" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="90"/>
-    </row>
-    <row r="9" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+      <c r="C8" s="233"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="237"/>
+    </row>
+    <row r="9" spans="1:5" ht="39" thickBot="1">
+      <c r="A9" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="127" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="90"/>
-    </row>
-    <row r="10" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="45" t="s">
+      <c r="D9" s="195"/>
+      <c r="E9" s="237"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="153" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="160" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="239" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="243" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="90"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="E10" s="237"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="161" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="162" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="240"/>
+      <c r="D11" s="244"/>
+      <c r="E11" s="237"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="161" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="162" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="240"/>
+      <c r="D12" s="244"/>
+      <c r="E12" s="237"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="161" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="162" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="240"/>
+      <c r="D13" s="244"/>
+      <c r="E13" s="237"/>
+    </row>
+    <row r="14" spans="1:5" ht="38.25">
+      <c r="A14" s="154" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="157" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="240"/>
+      <c r="D14" s="244"/>
+      <c r="E14" s="237"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B15" s="158" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="90"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="C15" s="241"/>
+      <c r="D15" s="245"/>
+      <c r="E15" s="237"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B16" s="159" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="90"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="C16" s="241"/>
+      <c r="D16" s="245"/>
+      <c r="E16" s="237"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="155" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="86" t="s">
+      <c r="B17" s="234" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="90"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42" t="s">
+      <c r="C17" s="241"/>
+      <c r="D17" s="245"/>
+      <c r="E17" s="237"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A18" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="87"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="91"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-    </row>
-    <row r="17" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="62" t="s">
+      <c r="B18" s="235"/>
+      <c r="C18" s="242"/>
+      <c r="D18" s="246"/>
+      <c r="E18" s="238"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="46"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="257" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" s="265" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" s="267"/>
+      <c r="D21" s="267"/>
+      <c r="E21" s="254" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="155" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" s="266" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="268"/>
+      <c r="D22" s="268"/>
+      <c r="E22" s="255"/>
+    </row>
+    <row r="23" spans="1:5" ht="38.25" customHeight="1">
+      <c r="A23" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B23" s="253" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="269" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D23" s="275" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="60" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="63" t="s">
+      <c r="E23" s="255"/>
+    </row>
+    <row r="24" spans="1:5" ht="76.5">
+      <c r="A24" s="259" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="128"/>
+      <c r="C24" s="270" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="276" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="255"/>
+    </row>
+    <row r="25" spans="1:5" ht="178.5">
+      <c r="A25" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="163" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="270" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="277"/>
+      <c r="E25" s="255"/>
+    </row>
+    <row r="26" spans="1:5" ht="255.75" thickBot="1">
+      <c r="A26" s="260" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="164" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="271" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="277"/>
+      <c r="E26" s="255"/>
+    </row>
+    <row r="27" spans="1:5" ht="76.5">
+      <c r="A27" s="261" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" s="166" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="272" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" s="261"/>
+      <c r="E27" s="255"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="262" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" s="167" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="273"/>
+      <c r="D28" s="278"/>
+      <c r="E28" s="255"/>
+    </row>
+    <row r="29" spans="1:5" ht="38.25">
+      <c r="A29" s="262" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" s="167" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="273"/>
+      <c r="D29" s="278"/>
+      <c r="E29" s="255"/>
+    </row>
+    <row r="30" spans="1:5" ht="90" thickBot="1">
+      <c r="A30" s="263" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="168" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="274"/>
+      <c r="D30" s="279"/>
+      <c r="E30" s="255"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A31" s="264" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B31" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="60"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-    </row>
-    <row r="20" spans="1:5" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="64" t="s">
+      <c r="C31" s="99"/>
+      <c r="D31" s="280"/>
+      <c r="E31" s="256"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A32" s="56"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="55"/>
+    </row>
+    <row r="33" spans="1:5" ht="30.75">
+      <c r="A33" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="14"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="14"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="14"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="14"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="14"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="14"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="14"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="14"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="14"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="14"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="14"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="14"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="14"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="14"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="14"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="14"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="14"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="14"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="14"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="14"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="14"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="14"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="14"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="14"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="14"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="14"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="29"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="14"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="14"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="29"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="14"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="14"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="29"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="14"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="29"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="14"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="29"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="14"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="29"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="14"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="29"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="14"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="29"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="14"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="29"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="14"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="29"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="14"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="29"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="14"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="29"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="14"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="29"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="14"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="29"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="14"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="29"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="14"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="29"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="14"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="29"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="14"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="29"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="14"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="29"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="14"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="29"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="14"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="29"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="14"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="29"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="14"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="29"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="14"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="29"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="14"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="29"/>
-      <c r="B79" s="13"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="14"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="29"/>
-      <c r="B80" s="13"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="14"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="29"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="14"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="29"/>
-      <c r="B82" s="13"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="14"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="29"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="14"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="29"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="14"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="29"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="14"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="29"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="14"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="29"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="14"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="29"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="14"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="29"/>
-      <c r="B89" s="13"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="14"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="29"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="14"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="29"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="14"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="29"/>
-      <c r="B92" s="13"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="14"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="29"/>
-      <c r="B93" s="13"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="14"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="223"/>
+      <c r="C33" s="223"/>
+      <c r="D33" s="224"/>
+      <c r="E33" s="224"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A34" s="129"/>
+      <c r="B34" s="217"/>
+      <c r="C34" s="217"/>
+      <c r="D34" s="217"/>
+      <c r="E34" s="217"/>
+    </row>
+    <row r="35" spans="1:5" ht="63.75">
+      <c r="A35" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="104" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="220" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="250"/>
+      <c r="E35" s="224"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="101"/>
+      <c r="B36" s="105"/>
+      <c r="C36" s="225"/>
+      <c r="D36" s="251"/>
+      <c r="E36" s="227"/>
+    </row>
+    <row r="37" spans="1:5" ht="38.25">
+      <c r="A37" s="98" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="106" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="225"/>
+      <c r="D37" s="251"/>
+      <c r="E37" s="227"/>
+    </row>
+    <row r="38" spans="1:5" ht="38.25">
+      <c r="A38" s="102" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="106" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="225"/>
+      <c r="D38" s="251"/>
+      <c r="E38" s="227"/>
+    </row>
+    <row r="39" spans="1:5" ht="51.75" thickBot="1">
+      <c r="A39" s="103" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="107"/>
+      <c r="C39" s="226"/>
+      <c r="D39" s="252"/>
+      <c r="E39" s="217"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="199" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="216"/>
+      <c r="D40" s="213"/>
+      <c r="E40" s="224"/>
+    </row>
+    <row r="41" spans="1:5" ht="48">
+      <c r="A41" s="110" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="227"/>
+      <c r="C41" s="214"/>
+      <c r="D41" s="214"/>
+      <c r="E41" s="227"/>
+    </row>
+    <row r="42" spans="1:5" ht="24">
+      <c r="A42" s="110" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="227"/>
+      <c r="C42" s="214"/>
+      <c r="D42" s="214"/>
+      <c r="E42" s="227"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="227"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="214"/>
+      <c r="E43" s="227"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="110" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="227"/>
+      <c r="C44" s="214"/>
+      <c r="D44" s="214"/>
+      <c r="E44" s="227"/>
+    </row>
+    <row r="45" spans="1:5" ht="24">
+      <c r="A45" s="110" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="227"/>
+      <c r="C45" s="214"/>
+      <c r="D45" s="214"/>
+      <c r="E45" s="227"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="227"/>
+      <c r="C46" s="214"/>
+      <c r="D46" s="214"/>
+      <c r="E46" s="227"/>
+    </row>
+    <row r="47" spans="1:5" ht="24">
+      <c r="A47" s="110" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="227"/>
+      <c r="C47" s="214"/>
+      <c r="D47" s="214"/>
+      <c r="E47" s="227"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="110" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="227"/>
+      <c r="C48" s="214"/>
+      <c r="D48" s="214"/>
+      <c r="E48" s="227"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="110" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="227"/>
+      <c r="C49" s="214"/>
+      <c r="D49" s="214"/>
+      <c r="E49" s="227"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="110" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="227"/>
+      <c r="C50" s="214"/>
+      <c r="D50" s="214"/>
+      <c r="E50" s="227"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A51" s="111" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="217"/>
+      <c r="C51" s="215"/>
+      <c r="D51" s="215"/>
+      <c r="E51" s="227"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="115"/>
+      <c r="B52" s="228" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="202"/>
+      <c r="D52" s="230"/>
+      <c r="E52" s="209" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A53" s="116" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="229"/>
+      <c r="C53" s="201"/>
+      <c r="D53" s="231"/>
+      <c r="E53" s="210"/>
+    </row>
+    <row r="54" spans="1:5" ht="15" customHeight="1">
+      <c r="A54" s="115" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" s="219" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="220" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" s="221" t="s">
+        <v>110</v>
+      </c>
+      <c r="E54" s="210"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="118" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="214"/>
+      <c r="C55" s="200"/>
+      <c r="D55" s="222"/>
+      <c r="E55" s="210"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="119"/>
+      <c r="B56" s="214"/>
+      <c r="C56" s="200"/>
+      <c r="D56" s="222"/>
+      <c r="E56" s="210"/>
+    </row>
+    <row r="57" spans="1:5" ht="89.25">
+      <c r="A57" s="118" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="214"/>
+      <c r="C57" s="200"/>
+      <c r="D57" s="222"/>
+      <c r="E57" s="210"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="119"/>
+      <c r="B58" s="214"/>
+      <c r="C58" s="200"/>
+      <c r="D58" s="222"/>
+      <c r="E58" s="210"/>
+    </row>
+    <row r="59" spans="1:5" ht="102">
+      <c r="A59" s="118" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="214"/>
+      <c r="C59" s="200"/>
+      <c r="D59" s="222"/>
+      <c r="E59" s="210"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="119"/>
+      <c r="B60" s="214"/>
+      <c r="C60" s="200"/>
+      <c r="D60" s="222"/>
+      <c r="E60" s="210"/>
+    </row>
+    <row r="61" spans="1:5" ht="102">
+      <c r="A61" s="118" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" s="214"/>
+      <c r="C61" s="200"/>
+      <c r="D61" s="222"/>
+      <c r="E61" s="210"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="119"/>
+      <c r="B62" s="214"/>
+      <c r="C62" s="200"/>
+      <c r="D62" s="222"/>
+      <c r="E62" s="210"/>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A63" s="120" t="s">
+        <v>105</v>
+      </c>
+      <c r="B63" s="214"/>
+      <c r="C63" s="200"/>
+      <c r="D63" s="222"/>
+      <c r="E63" s="210"/>
+    </row>
+    <row r="64" spans="1:5" ht="15.75">
+      <c r="A64" s="132" t="s">
+        <v>113</v>
+      </c>
+      <c r="B64" s="139" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" s="142"/>
+      <c r="D64" s="218"/>
+      <c r="E64" s="210"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="133"/>
+      <c r="B65" s="140"/>
+      <c r="C65" s="143"/>
+      <c r="D65" s="200"/>
+      <c r="E65" s="211"/>
+    </row>
+    <row r="66" spans="1:5" ht="51">
+      <c r="A66" s="134" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" s="140"/>
+      <c r="C66" s="143"/>
+      <c r="D66" s="200"/>
+      <c r="E66" s="211"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="135" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" s="140"/>
+      <c r="C67" s="143"/>
+      <c r="D67" s="200"/>
+      <c r="E67" s="211"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="135"/>
+      <c r="B68" s="140"/>
+      <c r="C68" s="143"/>
+      <c r="D68" s="200"/>
+      <c r="E68" s="211"/>
+    </row>
+    <row r="69" spans="1:5" ht="25.5">
+      <c r="A69" s="134" t="s">
+        <v>116</v>
+      </c>
+      <c r="B69" s="140"/>
+      <c r="C69" s="143"/>
+      <c r="D69" s="200"/>
+      <c r="E69" s="211"/>
+    </row>
+    <row r="70" spans="1:5" ht="38.25">
+      <c r="A70" s="134" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" s="140"/>
+      <c r="C70" s="143"/>
+      <c r="D70" s="200"/>
+      <c r="E70" s="211"/>
+    </row>
+    <row r="71" spans="1:5" ht="25.5">
+      <c r="A71" s="136" t="s">
+        <v>118</v>
+      </c>
+      <c r="B71" s="140"/>
+      <c r="C71" s="143"/>
+      <c r="D71" s="200"/>
+      <c r="E71" s="211"/>
+    </row>
+    <row r="72" spans="1:5" ht="25.5">
+      <c r="A72" s="134" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" s="140"/>
+      <c r="C72" s="143"/>
+      <c r="D72" s="200"/>
+      <c r="E72" s="211"/>
+    </row>
+    <row r="73" spans="1:5" ht="38.25">
+      <c r="A73" s="136" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" s="140"/>
+      <c r="C73" s="143"/>
+      <c r="D73" s="200"/>
+      <c r="E73" s="211"/>
+    </row>
+    <row r="74" spans="1:5" ht="38.25">
+      <c r="A74" s="134" t="s">
+        <v>120</v>
+      </c>
+      <c r="B74" s="140"/>
+      <c r="C74" s="143"/>
+      <c r="D74" s="200"/>
+      <c r="E74" s="211"/>
+    </row>
+    <row r="75" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A75" s="137" t="s">
+        <v>121</v>
+      </c>
+      <c r="B75" s="141"/>
+      <c r="C75" s="107"/>
+      <c r="D75" s="201"/>
+      <c r="E75" s="211"/>
+    </row>
+    <row r="76" spans="1:5" ht="25.5">
+      <c r="A76" s="144" t="s">
+        <v>125</v>
+      </c>
+      <c r="B76" s="138" t="s">
+        <v>123</v>
+      </c>
+      <c r="C76" s="216"/>
+      <c r="D76" s="213"/>
+      <c r="E76" s="211"/>
+    </row>
+    <row r="77" spans="1:5" ht="45">
+      <c r="A77" s="145" t="s">
+        <v>126</v>
+      </c>
+      <c r="B77" s="147" t="s">
+        <v>124</v>
+      </c>
+      <c r="C77" s="214"/>
+      <c r="D77" s="214"/>
+      <c r="E77" s="211"/>
+    </row>
+    <row r="78" spans="1:5" ht="25.5">
+      <c r="A78" s="130" t="s">
+        <v>127</v>
+      </c>
+      <c r="B78" s="121"/>
+      <c r="C78" s="214"/>
+      <c r="D78" s="214"/>
+      <c r="E78" s="211"/>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A79" s="146" t="s">
+        <v>128</v>
+      </c>
+      <c r="B79" s="117"/>
+      <c r="C79" s="217"/>
+      <c r="D79" s="215"/>
+      <c r="E79" s="211"/>
+    </row>
+    <row r="80" spans="1:5" ht="25.5">
+      <c r="A80" s="148" t="s">
+        <v>131</v>
+      </c>
+      <c r="B80" s="203" t="s">
+        <v>147</v>
+      </c>
+      <c r="C80" s="144" t="s">
+        <v>141</v>
+      </c>
+      <c r="D80" s="206" t="s">
+        <v>148</v>
+      </c>
+      <c r="E80" s="211"/>
+    </row>
+    <row r="81" spans="1:5" ht="38.25">
+      <c r="A81" s="131" t="s">
+        <v>129</v>
+      </c>
+      <c r="B81" s="204"/>
+      <c r="C81" s="151" t="s">
+        <v>134</v>
+      </c>
+      <c r="D81" s="207"/>
+      <c r="E81" s="211"/>
+    </row>
+    <row r="82" spans="1:5" ht="38.25">
+      <c r="A82" s="149" t="s">
+        <v>132</v>
+      </c>
+      <c r="B82" s="204"/>
+      <c r="C82" s="151" t="s">
+        <v>135</v>
+      </c>
+      <c r="D82" s="207"/>
+      <c r="E82" s="211"/>
+    </row>
+    <row r="83" spans="1:5" ht="51">
+      <c r="A83" s="131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B83" s="204"/>
+      <c r="C83" s="151" t="s">
+        <v>136</v>
+      </c>
+      <c r="D83" s="207"/>
+      <c r="E83" s="211"/>
+    </row>
+    <row r="84" spans="1:5" ht="38.25">
+      <c r="A84" s="130" t="s">
+        <v>140</v>
+      </c>
+      <c r="B84" s="204"/>
+      <c r="C84" s="130" t="s">
+        <v>133</v>
+      </c>
+      <c r="D84" s="207"/>
+      <c r="E84" s="211"/>
+    </row>
+    <row r="85" spans="1:5" ht="25.5">
+      <c r="A85" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="B85" s="204"/>
+      <c r="C85" s="152" t="s">
+        <v>137</v>
+      </c>
+      <c r="D85" s="207"/>
+      <c r="E85" s="211"/>
+    </row>
+    <row r="86" spans="1:5" ht="51">
+      <c r="A86" s="130" t="s">
+        <v>145</v>
+      </c>
+      <c r="B86" s="204"/>
+      <c r="C86" s="152" t="s">
+        <v>138</v>
+      </c>
+      <c r="D86" s="207"/>
+      <c r="E86" s="211"/>
+    </row>
+    <row r="87" spans="1:5" ht="38.25">
+      <c r="A87" s="130" t="s">
+        <v>143</v>
+      </c>
+      <c r="B87" s="204"/>
+      <c r="C87" s="152" t="s">
+        <v>139</v>
+      </c>
+      <c r="D87" s="207"/>
+      <c r="E87" s="211"/>
+    </row>
+    <row r="88" spans="1:5" ht="25.5">
+      <c r="A88" s="131" t="s">
+        <v>144</v>
+      </c>
+      <c r="B88" s="204"/>
+      <c r="C88" s="108"/>
+      <c r="D88" s="207"/>
+      <c r="E88" s="211"/>
+    </row>
+    <row r="89" spans="1:5" ht="52.5" thickBot="1">
+      <c r="A89" s="116" t="s">
+        <v>146</v>
+      </c>
+      <c r="B89" s="205"/>
+      <c r="C89" s="99"/>
+      <c r="D89" s="208"/>
+      <c r="E89" s="212"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="169" t="s">
+        <v>168</v>
+      </c>
+      <c r="B90" s="172" t="s">
+        <v>169</v>
+      </c>
+      <c r="C90" s="202" t="s">
+        <v>175</v>
+      </c>
+      <c r="D90" s="199" t="s">
+        <v>174</v>
+      </c>
+      <c r="E90" s="196" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="170" t="s">
+        <v>170</v>
+      </c>
+      <c r="B91" s="173" t="s">
+        <v>171</v>
+      </c>
+      <c r="C91" s="200"/>
+      <c r="D91" s="200"/>
+      <c r="E91" s="197"/>
+    </row>
+    <row r="92" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A92" s="171" t="s">
+        <v>172</v>
+      </c>
+      <c r="B92" s="174" t="s">
+        <v>173</v>
+      </c>
+      <c r="C92" s="201"/>
+      <c r="D92" s="201"/>
+      <c r="E92" s="198"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="28"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="95"/>
+      <c r="D93" s="96"/>
+      <c r="E93" s="97"/>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="29"/>
       <c r="B94" s="13"/>
       <c r="C94" s="22"/>
       <c r="D94" s="10"/>
       <c r="E94" s="14"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" s="29"/>
       <c r="B95" s="13"/>
       <c r="C95" s="22"/>
       <c r="D95" s="10"/>
       <c r="E95" s="14"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" s="29"/>
       <c r="B96" s="13"/>
       <c r="C96" s="22"/>
       <c r="D96" s="10"/>
       <c r="E96" s="14"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" s="29"/>
       <c r="B97" s="13"/>
       <c r="C97" s="22"/>
       <c r="D97" s="10"/>
       <c r="E97" s="14"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" s="29"/>
       <c r="B98" s="13"/>
       <c r="C98" s="22"/>
       <c r="D98" s="10"/>
       <c r="E98" s="14"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" s="29"/>
       <c r="B99" s="13"/>
       <c r="C99" s="22"/>
       <c r="D99" s="10"/>
       <c r="E99" s="14"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" s="29"/>
       <c r="B100" s="13"/>
       <c r="C100" s="22"/>
       <c r="D100" s="10"/>
       <c r="E100" s="14"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" s="29"/>
       <c r="B101" s="13"/>
       <c r="C101" s="22"/>
       <c r="D101" s="10"/>
       <c r="E101" s="14"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102" s="29"/>
       <c r="B102" s="13"/>
       <c r="C102" s="22"/>
       <c r="D102" s="10"/>
       <c r="E102" s="14"/>
     </row>
-    <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="30"/>
-      <c r="B103" s="15"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="17"/>
+    <row r="103" spans="1:5">
+      <c r="A103" s="29"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="14"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="29"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="22"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="14"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="29"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="14"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="29"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="14"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="29"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="14"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="29"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="22"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="14"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="29"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="14"/>
+    </row>
+    <row r="110" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A110" s="30"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="36">
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E35:E39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="E40:E51"/>
+    <mergeCell ref="E21:E31"/>
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D9"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="E2:E14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="E2:E18"/>
+    <mergeCell ref="C10:C18"/>
+    <mergeCell ref="D10:D18"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="B40:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C40:C51"/>
+    <mergeCell ref="D40:D51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="B80:B89"/>
+    <mergeCell ref="D80:D89"/>
+    <mergeCell ref="E52:E89"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="D64:D75"/>
+    <mergeCell ref="B54:B63"/>
+    <mergeCell ref="C54:C63"/>
+    <mergeCell ref="D54:D63"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B35" r:id="rId1" display="http://redsymbol.net/linux-kernel-boot-parameters/2.6.28/"/>
+    <hyperlink ref="B77" r:id="rId2" display="http://kernel.ubuntu.com/~kernel-ppa/mainline/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>